--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_3_2.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_3_2.xlsx
@@ -478,404 +478,404 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_3_2_2</t>
+          <t>model_3_2_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7929430134931675</v>
+        <v>0.4055803811774429</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8737314111121524</v>
+        <v>0.3283348312153617</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6714679652279023</v>
+        <v>0.2465232423111813</v>
       </c>
       <c r="E2" t="n">
-        <v>0.868958571533034</v>
+        <v>0.3364461700703654</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2291510999202728</v>
+        <v>0.6578474044799805</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3018065690994263</v>
+        <v>0.09549585729837418</v>
       </c>
       <c r="H2" t="n">
-        <v>0.04430203884840012</v>
+        <v>1.003667593002319</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1806283444166183</v>
+        <v>0.5228708386421204</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_3_2_0</t>
+          <t>model_3_2_4</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.801409661825801</v>
+        <v>0.4186187450236687</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9188915515485474</v>
+        <v>-1.084735238539008</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6866579484737347</v>
+        <v>0.2411455610759831</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9111160436456767</v>
+        <v>0.1971876533440914</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2197809964418411</v>
+        <v>0.6434177756309509</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1938650012016296</v>
+        <v>0.2964030206203461</v>
       </c>
       <c r="H3" t="n">
-        <v>0.04225369542837143</v>
+        <v>1.010830879211426</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1225182190537453</v>
+        <v>0.6326044797897339</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_3_2_5</t>
+          <t>model_3_2_1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8018357747302826</v>
+        <v>0.4190868080471527</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8959260934206116</v>
+        <v>0.3947613409603073</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6184983558475075</v>
+        <v>0.2243230112499317</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8868953464117231</v>
+        <v>0.3251308831232081</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2193094044923782</v>
+        <v>0.6428996920585632</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2487569451332092</v>
+        <v>0.08605148643255234</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05144491046667099</v>
+        <v>1.033239364624023</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1559041738510132</v>
+        <v>0.531787097454071</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_3_2_3</t>
+          <t>model_3_2_2</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8018931870788316</v>
+        <v>0.4192054259238757</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8981858829894142</v>
+        <v>0.1860986654353012</v>
       </c>
       <c r="D5" t="n">
-        <v>0.619725688410158</v>
+        <v>0.2379263987058355</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8890262739805682</v>
+        <v>0.3160210564234603</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2192458808422089</v>
+        <v>0.6427684426307678</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2433555871248245</v>
+        <v>0.1157186850905418</v>
       </c>
       <c r="H5" t="n">
-        <v>0.05127940699458122</v>
+        <v>1.015119075775146</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1529668718576431</v>
+        <v>0.5389655232429504</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_3_2_9</t>
+          <t>model_3_2_3</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8020519772813887</v>
+        <v>0.4207452230514948</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8969313686307554</v>
+        <v>-0.9126594501147605</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5637396488589688</v>
+        <v>0.240429410334262</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8852972576346154</v>
+        <v>0.213055052979268</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2190701216459274</v>
+        <v>0.6410642862319946</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2463541626930237</v>
+        <v>0.2719376683235168</v>
       </c>
       <c r="H6" t="n">
-        <v>0.05882903933525085</v>
+        <v>1.011784791946411</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1581069827079773</v>
+        <v>0.6201012134552002</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_3_2_1</t>
+          <t>model_3_2_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8020864459962825</v>
+        <v>0.4224606969271649</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9056950518024023</v>
+        <v>-1.056744501057936</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6962148563553425</v>
+        <v>0.2457101950152081</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8994409913819812</v>
+        <v>0.2034924733220459</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2190319746732712</v>
+        <v>0.6391658782958984</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2254072278738022</v>
+        <v>0.2924233675003052</v>
       </c>
       <c r="H7" t="n">
-        <v>0.04096496105194092</v>
+        <v>1.004750609397888</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1386111825704575</v>
+        <v>0.6276364326477051</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_3_2_8</t>
+          <t>model_3_2_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8023474152771345</v>
+        <v>0.4323138953434896</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8973174716650902</v>
+        <v>-1.23551690393924</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5772636011693215</v>
+        <v>0.2668015523441382</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8862742419021052</v>
+        <v>0.2031944373287931</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2187431752681732</v>
+        <v>0.6282612085342407</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2454312592744827</v>
+        <v>0.3178407847881317</v>
       </c>
       <c r="H8" t="n">
-        <v>0.05700535327196121</v>
+        <v>0.9766558408737183</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1567603200674057</v>
+        <v>0.6278712153434753</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_3_2_4</t>
+          <t>model_3_2_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8024462959890508</v>
+        <v>0.4389773484329662</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8988379405061856</v>
+        <v>-1.35490193779806</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6132039120256294</v>
+        <v>0.2845573825768657</v>
       </c>
       <c r="E9" t="n">
-        <v>0.889324672018829</v>
+        <v>0.2059153281414184</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2186337411403656</v>
+        <v>0.6208868026733398</v>
       </c>
       <c r="G9" t="n">
-        <v>0.24179707467556</v>
+        <v>0.3348146975040436</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05215885862708092</v>
+        <v>0.9530042409896851</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1525555849075317</v>
+        <v>0.6257272362709045</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_3_2_24</t>
+          <t>model_3_2_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8028137174879033</v>
+        <v>0.4409585839605559</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9023693223086373</v>
+        <v>-1.360723298206814</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4756391294922009</v>
+        <v>0.2877810488903244</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8862334529418043</v>
+        <v>0.2079234659501225</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2182271182537079</v>
+        <v>0.6186941266059875</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2333563715219498</v>
+        <v>0.3356423676013947</v>
       </c>
       <c r="H10" t="n">
-        <v>0.07070925831794739</v>
+        <v>0.9487101435661316</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1568165421485901</v>
+        <v>0.6241448521614075</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_3_2_23</t>
+          <t>model_3_2_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8029157897259426</v>
+        <v>0.4498922820025838</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9024593114612787</v>
+        <v>-1.557085848580881</v>
       </c>
       <c r="D11" t="n">
-        <v>0.480293597553205</v>
+        <v>0.3210803897013164</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8865303234633681</v>
+        <v>0.2156561261164551</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2181141376495361</v>
+        <v>0.6088070869445801</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2331412583589554</v>
+        <v>0.3635607957839966</v>
       </c>
       <c r="H11" t="n">
-        <v>0.07008160650730133</v>
+        <v>0.9043538570404053</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1564073264598846</v>
+        <v>0.6180516481399536</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_3_2_6</t>
+          <t>model_3_2_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8029427035670887</v>
+        <v>0.4551290195278714</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8987274680862236</v>
+        <v>-1.612970047053316</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6030301097368127</v>
+        <v>0.3261117276168012</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8887548703840444</v>
+        <v>0.214320184817321</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2180843651294708</v>
+        <v>0.6030116677284241</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2420611083507538</v>
+        <v>0.3715062737464905</v>
       </c>
       <c r="H12" t="n">
-        <v>0.05353077873587608</v>
+        <v>0.8976518511772156</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1533409804105759</v>
+        <v>0.6191043257713318</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_3_2_7</t>
+          <t>model_3_2_12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8030286493855086</v>
+        <v>0.4559440972838217</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8992435385002803</v>
+        <v>-1.808603013565031</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5893021645503282</v>
+        <v>0.3317139932063585</v>
       </c>
       <c r="E13" t="n">
-        <v>0.88859658491264</v>
+        <v>0.2000897529241801</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2179892361164093</v>
+        <v>0.6021094918251038</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2408276200294495</v>
+        <v>0.3993209302425385</v>
       </c>
       <c r="H13" t="n">
-        <v>0.05538197234272957</v>
+        <v>0.8901893496513367</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1535591781139374</v>
+        <v>0.6303176879882812</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_3_2_22</t>
+          <t>model_3_2_11</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8030506232817625</v>
+        <v>0.4569522504727548</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9026473209127747</v>
+        <v>-1.589079817770861</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4849930838407542</v>
+        <v>0.3255076392141771</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8869192018450359</v>
+        <v>0.2161219035859686</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2179649174213409</v>
+        <v>0.600993812084198</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2326918989419937</v>
+        <v>0.3681095838546753</v>
       </c>
       <c r="H14" t="n">
-        <v>0.06944788992404938</v>
+        <v>0.8984565734863281</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1558712869882584</v>
+        <v>0.6176846027374268</v>
       </c>
     </row>
     <row r="15">
@@ -885,369 +885,369 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8031597365589825</v>
+        <v>0.4589808447663438</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9022330599448627</v>
+        <v>-1.798571465995723</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5051181001579683</v>
+        <v>0.3348859634723819</v>
       </c>
       <c r="E15" t="n">
-        <v>0.887465349608455</v>
+        <v>0.2035712378343991</v>
       </c>
       <c r="F15" t="n">
-        <v>0.217844158411026</v>
+        <v>0.5987487435340881</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2336820513010025</v>
+        <v>0.3978946506977081</v>
       </c>
       <c r="H15" t="n">
-        <v>0.06673406064510345</v>
+        <v>0.8859641551971436</v>
       </c>
       <c r="I15" t="n">
-        <v>0.155118465423584</v>
+        <v>0.6275743842124939</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_3_2_21</t>
+          <t>model_3_2_13</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.8031781343010206</v>
+        <v>0.4592414429507937</v>
       </c>
       <c r="C16" t="n">
-        <v>0.902817178633457</v>
+        <v>-1.671305234016091</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4897542789633686</v>
+        <v>0.330677875129532</v>
       </c>
       <c r="E16" t="n">
-        <v>0.887294506673261</v>
+        <v>0.2123803528772485</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2178238183259964</v>
+        <v>0.59846031665802</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2322859019041061</v>
+        <v>0.3798002302646637</v>
       </c>
       <c r="H16" t="n">
-        <v>0.06880585104227066</v>
+        <v>0.8915694952011108</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1553539633750916</v>
+        <v>0.6206328272819519</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_3_2_17</t>
+          <t>model_3_2_14</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.8032775581861156</v>
+        <v>0.4597504637246015</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9024929110609645</v>
+        <v>-1.678351614857075</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5082224711988679</v>
+        <v>0.3312593490185675</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8878468294370588</v>
+        <v>0.2121698971512195</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2177137583494186</v>
+        <v>0.5978970527648926</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2330609709024429</v>
+        <v>0.3808020353317261</v>
       </c>
       <c r="H17" t="n">
-        <v>0.06631544232368469</v>
+        <v>0.8907949924468994</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1545926332473755</v>
+        <v>0.6207987070083618</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_3_2_19</t>
+          <t>model_3_2_15</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8032851322125807</v>
+        <v>0.459875992586205</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9028494105865753</v>
+        <v>-1.673481293093349</v>
       </c>
       <c r="D18" t="n">
-        <v>0.49641549518753</v>
+        <v>0.3314034313318789</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8876307346261489</v>
+        <v>0.2127497265380116</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2177053838968277</v>
+        <v>0.5977581739425659</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2322088927030563</v>
+        <v>0.3801096081733704</v>
       </c>
       <c r="H18" t="n">
-        <v>0.06790759414434433</v>
+        <v>0.8906030654907227</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1548905074596405</v>
+        <v>0.6203417778015137</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_3_2_20</t>
+          <t>model_3_2_16</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.8033889692434788</v>
+        <v>0.4599591657116056</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9031985682009633</v>
+        <v>-1.676359235807587</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4952111248340545</v>
+        <v>0.3316679486024275</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8878958275377076</v>
+        <v>0.2126853075317455</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2175904661417007</v>
+        <v>0.5976661443710327</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2313743233680725</v>
+        <v>0.3805187940597534</v>
       </c>
       <c r="H19" t="n">
-        <v>0.06807000190019608</v>
+        <v>0.8902506828308105</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1545250862836838</v>
+        <v>0.6203925609588623</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_3_2_13</t>
+          <t>model_3_2_19</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.8034929111874447</v>
+        <v>0.4600576626711562</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9020100102540105</v>
+        <v>-1.725154960326786</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5397420146074788</v>
+        <v>0.3310048048219237</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8888546107420264</v>
+        <v>0.2074964258261097</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2174754440784454</v>
+        <v>0.5975570678710938</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2342151999473572</v>
+        <v>0.387456476688385</v>
       </c>
       <c r="H20" t="n">
-        <v>0.06206507980823517</v>
+        <v>0.8911340832710266</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1532035171985626</v>
+        <v>0.6244813203811646</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_3_2_12</t>
+          <t>model_3_2_17</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.8035068030939021</v>
+        <v>0.4602125046623332</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9020212104957841</v>
+        <v>-1.680194748288858</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5406227424955619</v>
+        <v>0.3312115117538591</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8889055303136858</v>
+        <v>0.2119556128584603</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2174600809812546</v>
+        <v>0.5973857045173645</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2341884523630142</v>
+        <v>0.3810641169548035</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0619463138282299</v>
+        <v>0.8908587098121643</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1531333029270172</v>
+        <v>0.6209675669670105</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_3_2_10</t>
+          <t>model_3_2_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.8035567943266911</v>
+        <v>0.4607583715727566</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9019715812470874</v>
+        <v>-1.717785460348948</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5451814776610817</v>
+        <v>0.3309621321192266</v>
       </c>
       <c r="E22" t="n">
-        <v>0.88906985385088</v>
+        <v>0.2081665582287074</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2174047380685806</v>
+        <v>0.5967816114425659</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2343070507049561</v>
+        <v>0.3864086866378784</v>
       </c>
       <c r="H22" t="n">
-        <v>0.06133157759904861</v>
+        <v>0.8911908864974976</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1529068052768707</v>
+        <v>0.6239533424377441</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_3_2_16</t>
+          <t>model_3_2_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.803569502308948</v>
+        <v>0.460830361179462</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9032623504918926</v>
+        <v>-1.716744222749524</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5115914957134871</v>
+        <v>0.330269929615156</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8887084078553589</v>
+        <v>0.2077154725629082</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2173906713724136</v>
+        <v>0.596701979637146</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2312218546867371</v>
+        <v>0.3862606287002563</v>
       </c>
       <c r="H23" t="n">
-        <v>0.06586113572120667</v>
+        <v>0.8921129107475281</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1534050554037094</v>
+        <v>0.6243087649345398</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_3_2_11</t>
+          <t>model_3_2_23</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.803586983305313</v>
+        <v>0.4609464436864592</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9021470918203286</v>
+        <v>-1.717186883308348</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5428639567552687</v>
+        <v>0.329047237081855</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8891242494394203</v>
+        <v>0.2067003480407607</v>
       </c>
       <c r="F24" t="n">
-        <v>0.217371329665184</v>
+        <v>0.5965734124183655</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2338875383138657</v>
+        <v>0.3863235712051392</v>
       </c>
       <c r="H24" t="n">
-        <v>0.06164409220218658</v>
+        <v>0.8937416076660156</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1528318375349045</v>
+        <v>0.6251085996627808</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_3_2_15</t>
+          <t>model_3_2_24</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.8038801631709593</v>
+        <v>0.461240946151934</v>
       </c>
       <c r="C25" t="n">
-        <v>0.903880580164828</v>
+        <v>-1.722601366952664</v>
       </c>
       <c r="D25" t="n">
-        <v>0.517822199752903</v>
+        <v>0.331034043143672</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8895628262670987</v>
+        <v>0.2077635624993396</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2170468717813492</v>
+        <v>0.5962475538253784</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2297441959381104</v>
+        <v>0.3870933949947357</v>
       </c>
       <c r="H25" t="n">
-        <v>0.06502093374729156</v>
+        <v>0.8910951614379883</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1522272974252701</v>
+        <v>0.6242708563804626</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_3_2_14</t>
+          <t>model_3_2_22</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.8042941752907582</v>
+        <v>0.4613197048457837</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9046730964993721</v>
+        <v>-1.704799133673089</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5293260487724467</v>
+        <v>0.3304327375078094</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8908199317818839</v>
+        <v>0.2089859670084752</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2165886908769608</v>
+        <v>0.596160352230072</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2278499007225037</v>
+        <v>0.3845622837543488</v>
       </c>
       <c r="H26" t="n">
-        <v>0.06346965581178665</v>
+        <v>0.8918960094451904</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1504944860935211</v>
+        <v>0.6233076453208923</v>
       </c>
     </row>
   </sheetData>
